--- a/data/trans_camb/P23_DUKE_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AF_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,45</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 20,12</t>
+          <t>-18,98; 30,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 15,81</t>
+          <t>-17,38; 32,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 15,12</t>
+          <t>-13,98; 33,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 44,56</t>
+          <t>-18,12; 26,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 12,55</t>
+          <t>-20,45; 22,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 25,44</t>
+          <t>-17,01; 27,03</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,98; 20,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-15,65; 20,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 25,07</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-40,01%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>111,5%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,1%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,33; 147,22</t>
+          <t>-26,57; 55,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,57; 129,28</t>
+          <t>-23,23; 58,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 149,34</t>
+          <t>-18,8; 59,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 456,27</t>
+          <t>-25,82; 59,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 77,34</t>
+          <t>-31,12; 51,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 152,56</t>
+          <t>-24,55; 62,48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-19,7; 38,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,78; 36,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; 45,3</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-10,63</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 10,81</t>
+          <t>-13,57; 14,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 12,36</t>
+          <t>-12,4; 14,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 4,95</t>
+          <t>-2,99; 22,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -1,42</t>
+          <t>-6,86; 12,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 5,46</t>
+          <t>-16,63; 3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 2,73</t>
+          <t>-20,19; 0,15</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 9,76</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 8,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 7,52</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,96%</t>
+          <t>-14,58%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,14%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 88,94</t>
+          <t>-18,87; 26,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 92,36</t>
+          <t>-17,21; 24,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 22,48</t>
+          <t>-4,01; 41,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,89; -6,9</t>
+          <t>-8,78; 18,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 28,94</t>
+          <t>-21,26; 4,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 14,82</t>
+          <t>-26,57; -0,38</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; 15,52</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,62; 12,66</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,24; 11,49</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 12,13</t>
+          <t>-13,58; 10,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 10,47</t>
+          <t>-18,32; 6,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 8,04</t>
+          <t>-16,49; 7,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 14,01</t>
+          <t>-10,36; 10,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,74</t>
+          <t>-2,69; 17,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 10,44</t>
+          <t>-3,63; 16,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 6,63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 8,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 8,48</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>-2,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>-8,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 138,77</t>
+          <t>-17,19; 14,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 110,56</t>
+          <t>-22,95; 8,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 72,55</t>
+          <t>-20,8; 11,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 124,94</t>
+          <t>-13,82; 16,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 72,53</t>
+          <t>-3,48; 27,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 93,65</t>
+          <t>-4,98; 25,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 9,92</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 13,07</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 12,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 7,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 7,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 10,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 6,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 52,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 54,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 30,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 57,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 28,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 35,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 8,47</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 9,29</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 13,0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 8,68</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 6,17</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 4,48</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 6,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 5,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 6,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-0,57%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 12,7</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 14,15</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 20,21</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 13,11</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 9,22</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 6,71</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 9,58</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 7,72</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 10,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
